--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf17-Fgfr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf17-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,15 +76,6 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>sCs</t>
-  </si>
-  <si>
-    <t>Fgf17</t>
-  </si>
-  <si>
-    <t>Fgfr1</t>
-  </si>
-  <si>
     <t>ECs</t>
   </si>
   <si>
@@ -98,6 +89,15 @@
   </si>
   <si>
     <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
+    <t>Fgf17</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.295754837241929</v>
+        <v>0.272519</v>
       </c>
       <c r="H2">
-        <v>0.295754837241929</v>
+        <v>0.545038</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2156106809380877</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1803469898877063</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.552684602533731</v>
+        <v>10.077153</v>
       </c>
       <c r="N2">
-        <v>9.552684602533731</v>
+        <v>20.154306</v>
       </c>
       <c r="O2">
-        <v>0.08903631199983512</v>
+        <v>0.08561976287781047</v>
       </c>
       <c r="P2">
-        <v>0.08903631199983512</v>
+        <v>0.06709546746404282</v>
       </c>
       <c r="Q2">
-        <v>2.825252679845845</v>
+        <v>2.746215658407</v>
       </c>
       <c r="R2">
-        <v>2.825252679845845</v>
+        <v>10.984862633628</v>
       </c>
       <c r="S2">
-        <v>0.08903631199983512</v>
+        <v>0.01846053537584232</v>
       </c>
       <c r="T2">
-        <v>0.08903631199983512</v>
+        <v>0.01210046559224866</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.295754837241929</v>
+        <v>0.272519</v>
       </c>
       <c r="H3">
-        <v>0.295754837241929</v>
+        <v>0.545038</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2156106809380877</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1803469898877063</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.5510556573628</v>
+        <v>56.16712533333333</v>
       </c>
       <c r="N3">
-        <v>52.5510556573628</v>
+        <v>168.501376</v>
       </c>
       <c r="O3">
-        <v>0.4898049482538784</v>
+        <v>0.4772197020892965</v>
       </c>
       <c r="P3">
-        <v>0.4898049482538784</v>
+        <v>0.560955985835208</v>
       </c>
       <c r="Q3">
-        <v>15.54222891283489</v>
+        <v>15.30660882871467</v>
       </c>
       <c r="R3">
-        <v>15.54222891283489</v>
+        <v>91.83965297228799</v>
       </c>
       <c r="S3">
-        <v>0.4898049482538784</v>
+        <v>0.1028936649245446</v>
       </c>
       <c r="T3">
-        <v>0.4898049482538784</v>
+        <v>0.1011667235048705</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.295754837241929</v>
+        <v>0.272519</v>
       </c>
       <c r="H4">
-        <v>0.295754837241929</v>
+        <v>0.545038</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2156106809380877</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1803469898877063</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.889687520140936</v>
+        <v>0.9207109999999999</v>
       </c>
       <c r="N4">
-        <v>0.889687520140936</v>
+        <v>2.762133</v>
       </c>
       <c r="O4">
-        <v>0.008292380510984035</v>
+        <v>0.007822750880034444</v>
       </c>
       <c r="P4">
-        <v>0.008292380510984035</v>
+        <v>0.009195385087080598</v>
       </c>
       <c r="Q4">
-        <v>0.263129387715458</v>
+        <v>0.250911241009</v>
       </c>
       <c r="R4">
-        <v>0.263129387715458</v>
+        <v>1.505467446054</v>
       </c>
       <c r="S4">
-        <v>0.008292380510984035</v>
+        <v>0.001686668644053251</v>
       </c>
       <c r="T4">
-        <v>0.008292380510984035</v>
+        <v>0.001658360021313289</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.295754837241929</v>
+        <v>0.272519</v>
       </c>
       <c r="H5">
-        <v>0.295754837241929</v>
+        <v>0.545038</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.2156106809380877</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1803469898877063</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.27656000284942</v>
+        <v>1.441214666666667</v>
       </c>
       <c r="N5">
-        <v>1.27656000284942</v>
+        <v>4.323644</v>
       </c>
       <c r="O5">
-        <v>0.01189824634951984</v>
+        <v>0.01224517063658978</v>
       </c>
       <c r="P5">
-        <v>0.01189824634951984</v>
+        <v>0.01439379333270538</v>
       </c>
       <c r="Q5">
-        <v>0.3775487958722866</v>
+        <v>0.3927583797453333</v>
       </c>
       <c r="R5">
-        <v>0.3775487958722866</v>
+        <v>2.356550278472</v>
       </c>
       <c r="S5">
-        <v>0.01189824634951984</v>
+        <v>0.0026401895791582</v>
       </c>
       <c r="T5">
-        <v>0.01189824634951984</v>
+        <v>0.002595877300619151</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.295754837241929</v>
+        <v>0.272519</v>
       </c>
       <c r="H6">
-        <v>0.295754837241929</v>
+        <v>0.545038</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.2156106809380877</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.1803469898877063</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.1299349819137</v>
+        <v>6.460321333333333</v>
       </c>
       <c r="N6">
-        <v>6.1299349819137</v>
+        <v>19.380964</v>
       </c>
       <c r="O6">
-        <v>0.05713438957710472</v>
+        <v>0.05488962811961477</v>
       </c>
       <c r="P6">
-        <v>0.05713438957710472</v>
+        <v>0.06452094353850663</v>
       </c>
       <c r="Q6">
-        <v>1.812957922879493</v>
+        <v>1.760560309438667</v>
       </c>
       <c r="R6">
-        <v>1.812957922879493</v>
+        <v>10.563361856632</v>
       </c>
       <c r="S6">
-        <v>0.05713438957710472</v>
+        <v>0.01183479009530855</v>
       </c>
       <c r="T6">
-        <v>0.05713438957710472</v>
+        <v>0.01163615795188432</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,1921 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.272519</v>
+      </c>
+      <c r="H7">
+        <v>0.545038</v>
+      </c>
+      <c r="I7">
+        <v>0.2156106809380877</v>
+      </c>
+      <c r="J7">
+        <v>0.1803469898877063</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>42.6300515</v>
+      </c>
+      <c r="N7">
+        <v>85.260103</v>
+      </c>
+      <c r="O7">
+        <v>0.362202985396654</v>
+      </c>
+      <c r="P7">
+        <v>0.2838384247424566</v>
+      </c>
+      <c r="Q7">
+        <v>11.6174990047285</v>
+      </c>
+      <c r="R7">
+        <v>46.469996018914</v>
+      </c>
+      <c r="S7">
+        <v>0.07809483231918081</v>
+      </c>
+      <c r="T7">
+        <v>0.05118940551677029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.2455253333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.736576</v>
+      </c>
+      <c r="I8">
+        <v>0.1942539210387201</v>
+      </c>
+      <c r="J8">
+        <v>0.2437247759303519</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10.077153</v>
+      </c>
+      <c r="N8">
+        <v>20.154306</v>
+      </c>
+      <c r="O8">
+        <v>0.08561976287781047</v>
+      </c>
+      <c r="P8">
+        <v>0.06709546746404282</v>
+      </c>
+      <c r="Q8">
+        <v>2.474196349376</v>
+      </c>
+      <c r="R8">
+        <v>14.845178096256</v>
+      </c>
+      <c r="S8">
+        <v>0.01663197465742013</v>
+      </c>
+      <c r="T8">
+        <v>0.01635282777361605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.2455253333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.736576</v>
+      </c>
+      <c r="I9">
+        <v>0.1942539210387201</v>
+      </c>
+      <c r="J9">
+        <v>0.2437247759303519</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>56.16712533333333</v>
+      </c>
+      <c r="N9">
+        <v>168.501376</v>
+      </c>
+      <c r="O9">
+        <v>0.4772197020892965</v>
+      </c>
+      <c r="P9">
+        <v>0.560955985835208</v>
+      </c>
+      <c r="Q9">
+        <v>13.79045216984178</v>
+      </c>
+      <c r="R9">
+        <v>124.114069528576</v>
+      </c>
+      <c r="S9">
+        <v>0.09270179832777573</v>
+      </c>
+      <c r="T9">
+        <v>0.1367188719544757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2455253333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.736576</v>
+      </c>
+      <c r="I10">
+        <v>0.1942539210387201</v>
+      </c>
+      <c r="J10">
+        <v>0.2437247759303519</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9207109999999999</v>
+      </c>
+      <c r="N10">
+        <v>2.762133</v>
+      </c>
+      <c r="O10">
+        <v>0.007822750880034444</v>
+      </c>
+      <c r="P10">
+        <v>0.009195385087080598</v>
+      </c>
+      <c r="Q10">
+        <v>0.2260578751786667</v>
+      </c>
+      <c r="R10">
+        <v>2.034520876608</v>
+      </c>
+      <c r="S10">
+        <v>0.001519600031755789</v>
+      </c>
+      <c r="T10">
+        <v>0.002241143169942018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2455253333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.736576</v>
+      </c>
+      <c r="I11">
+        <v>0.1942539210387201</v>
+      </c>
+      <c r="J11">
+        <v>0.2437247759303519</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.441214666666667</v>
+      </c>
+      <c r="N11">
+        <v>4.323644</v>
+      </c>
+      <c r="O11">
+        <v>0.01224517063658978</v>
+      </c>
+      <c r="P11">
+        <v>0.01439379333270538</v>
+      </c>
+      <c r="Q11">
+        <v>0.3538547114382222</v>
+      </c>
+      <c r="R11">
+        <v>3.184692402944</v>
+      </c>
+      <c r="S11">
+        <v>0.002378672409945765</v>
+      </c>
+      <c r="T11">
+        <v>0.003508124054801411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2455253333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.736576</v>
+      </c>
+      <c r="I12">
+        <v>0.1942539210387201</v>
+      </c>
+      <c r="J12">
+        <v>0.2437247759303519</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>6.460321333333333</v>
+      </c>
+      <c r="N12">
+        <v>19.380964</v>
+      </c>
+      <c r="O12">
+        <v>0.05488962811961477</v>
+      </c>
+      <c r="P12">
+        <v>0.06452094353850663</v>
+      </c>
+      <c r="Q12">
+        <v>1.586172548807111</v>
+      </c>
+      <c r="R12">
+        <v>14.275552939264</v>
+      </c>
+      <c r="S12">
+        <v>0.01066252548659236</v>
+      </c>
+      <c r="T12">
+        <v>0.01572535250673741</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2455253333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.736576</v>
+      </c>
+      <c r="I13">
+        <v>0.1942539210387201</v>
+      </c>
+      <c r="J13">
+        <v>0.2437247759303519</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>42.6300515</v>
+      </c>
+      <c r="N13">
+        <v>85.260103</v>
+      </c>
+      <c r="O13">
+        <v>0.362202985396654</v>
+      </c>
+      <c r="P13">
+        <v>0.2838384247424566</v>
+      </c>
+      <c r="Q13">
+        <v>10.46675760455467</v>
+      </c>
+      <c r="R13">
+        <v>62.800545627328</v>
+      </c>
+      <c r="S13">
+        <v>0.07035935012523031</v>
+      </c>
+      <c r="T13">
+        <v>0.06917845647077928</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.295754837241929</v>
-      </c>
-      <c r="H7">
-        <v>0.295754837241929</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>36.8898378729875</v>
-      </c>
-      <c r="N7">
-        <v>36.8898378729875</v>
-      </c>
-      <c r="O7">
-        <v>0.3438337233086778</v>
-      </c>
-      <c r="P7">
-        <v>0.3438337233086778</v>
-      </c>
-      <c r="Q7">
-        <v>10.91034799600657</v>
-      </c>
-      <c r="R7">
-        <v>10.91034799600657</v>
-      </c>
-      <c r="S7">
-        <v>0.3438337233086778</v>
-      </c>
-      <c r="T7">
-        <v>0.3438337233086778</v>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.396319</v>
+      </c>
+      <c r="I14">
+        <v>0.1045194518042191</v>
+      </c>
+      <c r="J14">
+        <v>0.131137532952392</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>10.077153</v>
+      </c>
+      <c r="N14">
+        <v>20.154306</v>
+      </c>
+      <c r="O14">
+        <v>0.08561976287781047</v>
+      </c>
+      <c r="P14">
+        <v>0.06709546746404282</v>
+      </c>
+      <c r="Q14">
+        <v>1.331255733269</v>
+      </c>
+      <c r="R14">
+        <v>7.987534399613999</v>
+      </c>
+      <c r="S14">
+        <v>0.008948930679595979</v>
+      </c>
+      <c r="T14">
+        <v>0.008798734075522063</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.396319</v>
+      </c>
+      <c r="I15">
+        <v>0.1045194518042191</v>
+      </c>
+      <c r="J15">
+        <v>0.131137532952392</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>56.16712533333333</v>
+      </c>
+      <c r="N15">
+        <v>168.501376</v>
+      </c>
+      <c r="O15">
+        <v>0.4772197020892965</v>
+      </c>
+      <c r="P15">
+        <v>0.560955985835208</v>
+      </c>
+      <c r="Q15">
+        <v>7.420032981660444</v>
+      </c>
+      <c r="R15">
+        <v>66.780296834944</v>
+      </c>
+      <c r="S15">
+        <v>0.04987874165254603</v>
+      </c>
+      <c r="T15">
+        <v>0.07356238407730614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.396319</v>
+      </c>
+      <c r="I16">
+        <v>0.1045194518042191</v>
+      </c>
+      <c r="J16">
+        <v>0.131137532952392</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.9207109999999999</v>
+      </c>
+      <c r="N16">
+        <v>2.762133</v>
+      </c>
+      <c r="O16">
+        <v>0.007822750880034444</v>
+      </c>
+      <c r="P16">
+        <v>0.009195385087080598</v>
+      </c>
+      <c r="Q16">
+        <v>0.1216317542696667</v>
+      </c>
+      <c r="R16">
+        <v>1.094685788427</v>
+      </c>
+      <c r="S16">
+        <v>0.0008176296335821727</v>
+      </c>
+      <c r="T16">
+        <v>0.001205860114866966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.396319</v>
+      </c>
+      <c r="I17">
+        <v>0.1045194518042191</v>
+      </c>
+      <c r="J17">
+        <v>0.131137532952392</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.441214666666667</v>
+      </c>
+      <c r="N17">
+        <v>4.323644</v>
+      </c>
+      <c r="O17">
+        <v>0.01224517063658978</v>
+      </c>
+      <c r="P17">
+        <v>0.01439379333270538</v>
+      </c>
+      <c r="Q17">
+        <v>0.1903935851595555</v>
+      </c>
+      <c r="R17">
+        <v>1.713542266436</v>
+      </c>
+      <c r="S17">
+        <v>0.001279858522185485</v>
+      </c>
+      <c r="T17">
+        <v>0.001887566547477572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.396319</v>
+      </c>
+      <c r="I18">
+        <v>0.1045194518042191</v>
+      </c>
+      <c r="J18">
+        <v>0.131137532952392</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.460321333333333</v>
+      </c>
+      <c r="N18">
+        <v>19.380964</v>
+      </c>
+      <c r="O18">
+        <v>0.05488962811961477</v>
+      </c>
+      <c r="P18">
+        <v>0.06452094353850663</v>
+      </c>
+      <c r="Q18">
+        <v>0.8534493635017777</v>
+      </c>
+      <c r="R18">
+        <v>7.681044271515999</v>
+      </c>
+      <c r="S18">
+        <v>0.005737033840799585</v>
+      </c>
+      <c r="T18">
+        <v>0.008461117359400338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.396319</v>
+      </c>
+      <c r="I19">
+        <v>0.1045194518042191</v>
+      </c>
+      <c r="J19">
+        <v>0.131137532952392</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>42.6300515</v>
+      </c>
+      <c r="N19">
+        <v>85.260103</v>
+      </c>
+      <c r="O19">
+        <v>0.362202985396654</v>
+      </c>
+      <c r="P19">
+        <v>0.2838384247424566</v>
+      </c>
+      <c r="Q19">
+        <v>5.631699793476167</v>
+      </c>
+      <c r="R19">
+        <v>33.790198760857</v>
+      </c>
+      <c r="S19">
+        <v>0.03785725747550986</v>
+      </c>
+      <c r="T19">
+        <v>0.03722187077781895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.07035433333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.211063</v>
+      </c>
+      <c r="I20">
+        <v>0.05566270871735622</v>
+      </c>
+      <c r="J20">
+        <v>0.06983839058316842</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.077153</v>
+      </c>
+      <c r="N20">
+        <v>20.154306</v>
+      </c>
+      <c r="O20">
+        <v>0.08561976287781047</v>
+      </c>
+      <c r="P20">
+        <v>0.06709546746404282</v>
+      </c>
+      <c r="Q20">
+        <v>0.708971381213</v>
+      </c>
+      <c r="R20">
+        <v>4.253828287278</v>
+      </c>
+      <c r="S20">
+        <v>0.004765827921516673</v>
+      </c>
+      <c r="T20">
+        <v>0.004685839463114091</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.07035433333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.211063</v>
+      </c>
+      <c r="I21">
+        <v>0.05566270871735622</v>
+      </c>
+      <c r="J21">
+        <v>0.06983839058316842</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>56.16712533333333</v>
+      </c>
+      <c r="N21">
+        <v>168.501376</v>
+      </c>
+      <c r="O21">
+        <v>0.4772197020892965</v>
+      </c>
+      <c r="P21">
+        <v>0.560955985835208</v>
+      </c>
+      <c r="Q21">
+        <v>3.951600658076444</v>
+      </c>
+      <c r="R21">
+        <v>35.564405922688</v>
+      </c>
+      <c r="S21">
+        <v>0.02656334127158003</v>
+      </c>
+      <c r="T21">
+        <v>0.03917626323872555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.07035433333333334</v>
+      </c>
+      <c r="H22">
+        <v>0.211063</v>
+      </c>
+      <c r="I22">
+        <v>0.05566270871735622</v>
+      </c>
+      <c r="J22">
+        <v>0.06983839058316842</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.9207109999999999</v>
+      </c>
+      <c r="N22">
+        <v>2.762133</v>
+      </c>
+      <c r="O22">
+        <v>0.007822750880034444</v>
+      </c>
+      <c r="P22">
+        <v>0.009195385087080598</v>
+      </c>
+      <c r="Q22">
+        <v>0.06477600859766666</v>
+      </c>
+      <c r="R22">
+        <v>0.582984077379</v>
+      </c>
+      <c r="S22">
+        <v>0.0004354355036037993</v>
+      </c>
+      <c r="T22">
+        <v>0.0006421908952741769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.07035433333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.211063</v>
+      </c>
+      <c r="I23">
+        <v>0.05566270871735622</v>
+      </c>
+      <c r="J23">
+        <v>0.06983839058316842</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.441214666666667</v>
+      </c>
+      <c r="N23">
+        <v>4.323644</v>
+      </c>
+      <c r="O23">
+        <v>0.01224517063658978</v>
+      </c>
+      <c r="P23">
+        <v>0.01439379333270538</v>
+      </c>
+      <c r="Q23">
+        <v>0.1013956970635556</v>
+      </c>
+      <c r="R23">
+        <v>0.912561273572</v>
+      </c>
+      <c r="S23">
+        <v>0.0006815993663388205</v>
+      </c>
+      <c r="T23">
+        <v>0.001005239360742884</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.07035433333333334</v>
+      </c>
+      <c r="H24">
+        <v>0.211063</v>
+      </c>
+      <c r="I24">
+        <v>0.05566270871735622</v>
+      </c>
+      <c r="J24">
+        <v>0.06983839058316842</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.460321333333333</v>
+      </c>
+      <c r="N24">
+        <v>19.380964</v>
+      </c>
+      <c r="O24">
+        <v>0.05488962811961477</v>
+      </c>
+      <c r="P24">
+        <v>0.06452094353850663</v>
+      </c>
+      <c r="Q24">
+        <v>0.4545116005257778</v>
+      </c>
+      <c r="R24">
+        <v>4.090604404732</v>
+      </c>
+      <c r="S24">
+        <v>0.003055305381626122</v>
+      </c>
+      <c r="T24">
+        <v>0.004506038855636782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.07035433333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.211063</v>
+      </c>
+      <c r="I25">
+        <v>0.05566270871735622</v>
+      </c>
+      <c r="J25">
+        <v>0.06983839058316842</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>42.6300515</v>
+      </c>
+      <c r="N25">
+        <v>85.260103</v>
+      </c>
+      <c r="O25">
+        <v>0.362202985396654</v>
+      </c>
+      <c r="P25">
+        <v>0.2838384247424566</v>
+      </c>
+      <c r="Q25">
+        <v>2.999208853248167</v>
+      </c>
+      <c r="R25">
+        <v>17.995253119489</v>
+      </c>
+      <c r="S25">
+        <v>0.02016119927269078</v>
+      </c>
+      <c r="T25">
+        <v>0.01982281876967494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.04629666666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.13889</v>
+      </c>
+      <c r="I26">
+        <v>0.03662884358581849</v>
+      </c>
+      <c r="J26">
+        <v>0.0459571505573988</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.077153</v>
+      </c>
+      <c r="N26">
+        <v>20.154306</v>
+      </c>
+      <c r="O26">
+        <v>0.08561976287781047</v>
+      </c>
+      <c r="P26">
+        <v>0.06709546746404282</v>
+      </c>
+      <c r="Q26">
+        <v>0.46653859339</v>
+      </c>
+      <c r="R26">
+        <v>2.79923156034</v>
+      </c>
+      <c r="S26">
+        <v>0.003136152902306187</v>
+      </c>
+      <c r="T26">
+        <v>0.003083516499964069</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.04629666666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.13889</v>
+      </c>
+      <c r="I27">
+        <v>0.03662884358581849</v>
+      </c>
+      <c r="J27">
+        <v>0.0459571505573988</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>56.16712533333333</v>
+      </c>
+      <c r="N27">
+        <v>168.501376</v>
+      </c>
+      <c r="O27">
+        <v>0.4772197020892965</v>
+      </c>
+      <c r="P27">
+        <v>0.560955985835208</v>
+      </c>
+      <c r="Q27">
+        <v>2.600350679182223</v>
+      </c>
+      <c r="R27">
+        <v>23.40315611264</v>
+      </c>
+      <c r="S27">
+        <v>0.01748000582389974</v>
+      </c>
+      <c r="T27">
+        <v>0.02577993869710272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.04629666666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.13889</v>
+      </c>
+      <c r="I28">
+        <v>0.03662884358581849</v>
+      </c>
+      <c r="J28">
+        <v>0.0459571505573988</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.9207109999999999</v>
+      </c>
+      <c r="N28">
+        <v>2.762133</v>
+      </c>
+      <c r="O28">
+        <v>0.007822750880034444</v>
+      </c>
+      <c r="P28">
+        <v>0.009195385087080598</v>
+      </c>
+      <c r="Q28">
+        <v>0.04262585026333333</v>
+      </c>
+      <c r="R28">
+        <v>0.38363265237</v>
+      </c>
+      <c r="S28">
+        <v>0.0002865383183956056</v>
+      </c>
+      <c r="T28">
+        <v>0.0004225936968802227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.04629666666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.13889</v>
+      </c>
+      <c r="I29">
+        <v>0.03662884358581849</v>
+      </c>
+      <c r="J29">
+        <v>0.0459571505573988</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.441214666666667</v>
+      </c>
+      <c r="N29">
+        <v>4.323644</v>
+      </c>
+      <c r="O29">
+        <v>0.01224517063658978</v>
+      </c>
+      <c r="P29">
+        <v>0.01439379333270538</v>
+      </c>
+      <c r="Q29">
+        <v>0.06672343501777778</v>
+      </c>
+      <c r="R29">
+        <v>0.60051091516</v>
+      </c>
+      <c r="S29">
+        <v>0.0004485264399293045</v>
+      </c>
+      <c r="T29">
+        <v>0.0006614977272832241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.04629666666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.13889</v>
+      </c>
+      <c r="I30">
+        <v>0.03662884358581849</v>
+      </c>
+      <c r="J30">
+        <v>0.0459571505573988</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>6.460321333333333</v>
+      </c>
+      <c r="N30">
+        <v>19.380964</v>
+      </c>
+      <c r="O30">
+        <v>0.05488962811961477</v>
+      </c>
+      <c r="P30">
+        <v>0.06452094353850663</v>
+      </c>
+      <c r="Q30">
+        <v>0.2990913433288889</v>
+      </c>
+      <c r="R30">
+        <v>2.69182208996</v>
+      </c>
+      <c r="S30">
+        <v>0.002010543602877113</v>
+      </c>
+      <c r="T30">
+        <v>0.002965198716304576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.04629666666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.13889</v>
+      </c>
+      <c r="I31">
+        <v>0.03662884358581849</v>
+      </c>
+      <c r="J31">
+        <v>0.0459571505573988</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>42.6300515</v>
+      </c>
+      <c r="N31">
+        <v>85.260103</v>
+      </c>
+      <c r="O31">
+        <v>0.362202985396654</v>
+      </c>
+      <c r="P31">
+        <v>0.2838384247424566</v>
+      </c>
+      <c r="Q31">
+        <v>1.973629284278334</v>
+      </c>
+      <c r="R31">
+        <v>11.84177570567</v>
+      </c>
+      <c r="S31">
+        <v>0.01326707649841054</v>
+      </c>
+      <c r="T31">
+        <v>0.01304440521986398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.4971385</v>
+      </c>
+      <c r="H32">
+        <v>0.994277</v>
+      </c>
+      <c r="I32">
+        <v>0.3933243939157985</v>
+      </c>
+      <c r="J32">
+        <v>0.3289951600889826</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10.077153</v>
+      </c>
+      <c r="N32">
+        <v>20.154306</v>
+      </c>
+      <c r="O32">
+        <v>0.08561976287781047</v>
+      </c>
+      <c r="P32">
+        <v>0.06709546746404282</v>
+      </c>
+      <c r="Q32">
+        <v>5.0097407266905</v>
+      </c>
+      <c r="R32">
+        <v>20.038962906762</v>
+      </c>
+      <c r="S32">
+        <v>0.03367634134112919</v>
+      </c>
+      <c r="T32">
+        <v>0.02207408405957789</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.4971385</v>
+      </c>
+      <c r="H33">
+        <v>0.994277</v>
+      </c>
+      <c r="I33">
+        <v>0.3933243939157985</v>
+      </c>
+      <c r="J33">
+        <v>0.3289951600889826</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>56.16712533333333</v>
+      </c>
+      <c r="N33">
+        <v>168.501376</v>
+      </c>
+      <c r="O33">
+        <v>0.4772197020892965</v>
+      </c>
+      <c r="P33">
+        <v>0.560955985835208</v>
+      </c>
+      <c r="Q33">
+        <v>27.92284043752533</v>
+      </c>
+      <c r="R33">
+        <v>167.537042625152</v>
+      </c>
+      <c r="S33">
+        <v>0.1877021500889505</v>
+      </c>
+      <c r="T33">
+        <v>0.1845518043627273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.4971385</v>
+      </c>
+      <c r="H34">
+        <v>0.994277</v>
+      </c>
+      <c r="I34">
+        <v>0.3933243939157985</v>
+      </c>
+      <c r="J34">
+        <v>0.3289951600889826</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.9207109999999999</v>
+      </c>
+      <c r="N34">
+        <v>2.762133</v>
+      </c>
+      <c r="O34">
+        <v>0.007822750880034444</v>
+      </c>
+      <c r="P34">
+        <v>0.009195385087080598</v>
+      </c>
+      <c r="Q34">
+        <v>0.4577208854735</v>
+      </c>
+      <c r="R34">
+        <v>2.746325312841</v>
+      </c>
+      <c r="S34">
+        <v>0.003076878748643827</v>
+      </c>
+      <c r="T34">
+        <v>0.003025237188803925</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.4971385</v>
+      </c>
+      <c r="H35">
+        <v>0.994277</v>
+      </c>
+      <c r="I35">
+        <v>0.3933243939157985</v>
+      </c>
+      <c r="J35">
+        <v>0.3289951600889826</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.441214666666667</v>
+      </c>
+      <c r="N35">
+        <v>4.323644</v>
+      </c>
+      <c r="O35">
+        <v>0.01224517063658978</v>
+      </c>
+      <c r="P35">
+        <v>0.01439379333270538</v>
+      </c>
+      <c r="Q35">
+        <v>0.7164832975646666</v>
+      </c>
+      <c r="R35">
+        <v>4.298899785388</v>
+      </c>
+      <c r="S35">
+        <v>0.004816324319032209</v>
+      </c>
+      <c r="T35">
+        <v>0.004735488341781137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.4971385</v>
+      </c>
+      <c r="H36">
+        <v>0.994277</v>
+      </c>
+      <c r="I36">
+        <v>0.3933243939157985</v>
+      </c>
+      <c r="J36">
+        <v>0.3289951600889826</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>6.460321333333333</v>
+      </c>
+      <c r="N36">
+        <v>19.380964</v>
+      </c>
+      <c r="O36">
+        <v>0.05488962811961477</v>
+      </c>
+      <c r="P36">
+        <v>0.06452094353850663</v>
+      </c>
+      <c r="Q36">
+        <v>3.211674457171333</v>
+      </c>
+      <c r="R36">
+        <v>19.270046743028</v>
+      </c>
+      <c r="S36">
+        <v>0.02158942971241105</v>
+      </c>
+      <c r="T36">
+        <v>0.0212270781485432</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.4971385</v>
+      </c>
+      <c r="H37">
+        <v>0.994277</v>
+      </c>
+      <c r="I37">
+        <v>0.3933243939157985</v>
+      </c>
+      <c r="J37">
+        <v>0.3289951600889826</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>42.6300515</v>
+      </c>
+      <c r="N37">
+        <v>85.260103</v>
+      </c>
+      <c r="O37">
+        <v>0.362202985396654</v>
+      </c>
+      <c r="P37">
+        <v>0.2838384247424566</v>
+      </c>
+      <c r="Q37">
+        <v>21.19303985763275</v>
+      </c>
+      <c r="R37">
+        <v>84.772159430531</v>
+      </c>
+      <c r="S37">
+        <v>0.1424632697056318</v>
+      </c>
+      <c r="T37">
+        <v>0.09338146798754915</v>
       </c>
     </row>
   </sheetData>
